--- a/data/field_collection/collection_metadata.xlsx
+++ b/data/field_collection/collection_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/field_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A281859-483C-964F-804D-D00322741E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F39E59-A19E-934F-8E00-218ED8623FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11280" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -38,34 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Sample_ID</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Lifestage</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Tube_ID</t>
-  </si>
-  <si>
-    <t>Date_Collected</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Diameter</t>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifestage</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>date_collected</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>tube_id</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,10 +449,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -461,13 +461,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/field_collection/collection_metadata.xlsx
+++ b/data/field_collection/collection_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/field_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F39E59-A19E-934F-8E00-218ED8623FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB21C49-0527-1D46-A650-A3080508C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="3100" yWindow="760" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="158">
   <si>
     <t>sample_id</t>
   </si>
@@ -59,13 +59,457 @@
     <t>site</t>
   </si>
   <si>
-    <t>tube_id</t>
-  </si>
-  <si>
     <t>experiment</t>
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>ACR-A-1</t>
+  </si>
+  <si>
+    <t>Acropora</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>ACR-A-2</t>
+  </si>
+  <si>
+    <t>ACR-A-3</t>
+  </si>
+  <si>
+    <t>ACR-A-4</t>
+  </si>
+  <si>
+    <t>ACR-A-5</t>
+  </si>
+  <si>
+    <t>ACR-R-1</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>ACR-R-2</t>
+  </si>
+  <si>
+    <t>ACR-R-3</t>
+  </si>
+  <si>
+    <t>ACR-R-4</t>
+  </si>
+  <si>
+    <t>ACR-R-5</t>
+  </si>
+  <si>
+    <t>ACR-R-6</t>
+  </si>
+  <si>
+    <t>ACR-R-7</t>
+  </si>
+  <si>
+    <t>ACR-R-8</t>
+  </si>
+  <si>
+    <t>ACR-R-9</t>
+  </si>
+  <si>
+    <t>ACR-R-10</t>
+  </si>
+  <si>
+    <t>POC-A-1</t>
+  </si>
+  <si>
+    <t>Pocillopora</t>
+  </si>
+  <si>
+    <t>POC-A-2</t>
+  </si>
+  <si>
+    <t>POC-A-3</t>
+  </si>
+  <si>
+    <t>POC-A-4</t>
+  </si>
+  <si>
+    <t>POC-A-5</t>
+  </si>
+  <si>
+    <t>POC-R-1</t>
+  </si>
+  <si>
+    <t>POC-R-2</t>
+  </si>
+  <si>
+    <t>POC-R-3</t>
+  </si>
+  <si>
+    <t>POC-R-4</t>
+  </si>
+  <si>
+    <t>POC-R-5</t>
+  </si>
+  <si>
+    <t>POC-R-6</t>
+  </si>
+  <si>
+    <t>POC-R-7</t>
+  </si>
+  <si>
+    <t>POC-R-8</t>
+  </si>
+  <si>
+    <t>POC-R-9</t>
+  </si>
+  <si>
+    <t>POC-R-10</t>
+  </si>
+  <si>
+    <t>POR-A-1</t>
+  </si>
+  <si>
+    <t>Porites</t>
+  </si>
+  <si>
+    <t>POR-A-2</t>
+  </si>
+  <si>
+    <t>POR-A-3</t>
+  </si>
+  <si>
+    <t>POR-A-4</t>
+  </si>
+  <si>
+    <t>POR-A-5</t>
+  </si>
+  <si>
+    <t>POR-R-1</t>
+  </si>
+  <si>
+    <t>POR-R-2</t>
+  </si>
+  <si>
+    <t>POR-R-3</t>
+  </si>
+  <si>
+    <t>POR-R-4</t>
+  </si>
+  <si>
+    <t>POR-R-5</t>
+  </si>
+  <si>
+    <t>POR-R-6</t>
+  </si>
+  <si>
+    <t>POR-R-7</t>
+  </si>
+  <si>
+    <t>POR-R-8</t>
+  </si>
+  <si>
+    <t>POR-R-9</t>
+  </si>
+  <si>
+    <t>POR-R-10</t>
+  </si>
+  <si>
+    <t>Avaiti</t>
+  </si>
+  <si>
+    <t>PI Curves</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ACR-A-6</t>
+  </si>
+  <si>
+    <t>ACR-A-7</t>
+  </si>
+  <si>
+    <t>ACR-A-8</t>
+  </si>
+  <si>
+    <t>ACR-A-9</t>
+  </si>
+  <si>
+    <t>ACR-A-10</t>
+  </si>
+  <si>
+    <t>ACR-A-11</t>
+  </si>
+  <si>
+    <t>ACR-A-12</t>
+  </si>
+  <si>
+    <t>ACR-A-13</t>
+  </si>
+  <si>
+    <t>ACR-A-14</t>
+  </si>
+  <si>
+    <t>ACR-A-15</t>
+  </si>
+  <si>
+    <t>ACR-A-16</t>
+  </si>
+  <si>
+    <t>ACR-A-17</t>
+  </si>
+  <si>
+    <t>ACR-R-11</t>
+  </si>
+  <si>
+    <t>ACR-R-12</t>
+  </si>
+  <si>
+    <t>ACR-R-13</t>
+  </si>
+  <si>
+    <t>ACR-R-14</t>
+  </si>
+  <si>
+    <t>ACR-R-15</t>
+  </si>
+  <si>
+    <t>ACR-R-16</t>
+  </si>
+  <si>
+    <t>ACR-R-17</t>
+  </si>
+  <si>
+    <t>ACR-R-18</t>
+  </si>
+  <si>
+    <t>ACR-R-19</t>
+  </si>
+  <si>
+    <t>ACR-R-20</t>
+  </si>
+  <si>
+    <t>ACR-R-21</t>
+  </si>
+  <si>
+    <t>ACR-R-22</t>
+  </si>
+  <si>
+    <t>ACR-R-23</t>
+  </si>
+  <si>
+    <t>ACR-R-24</t>
+  </si>
+  <si>
+    <t>ACR-R-25</t>
+  </si>
+  <si>
+    <t>ACR-R-26</t>
+  </si>
+  <si>
+    <t>ACR-R-27</t>
+  </si>
+  <si>
+    <t>ACR-R-28</t>
+  </si>
+  <si>
+    <t>ACR-R-29</t>
+  </si>
+  <si>
+    <t>ACR-R-30</t>
+  </si>
+  <si>
+    <t>POC-A-6</t>
+  </si>
+  <si>
+    <t>POC-A-7</t>
+  </si>
+  <si>
+    <t>POC-A-8</t>
+  </si>
+  <si>
+    <t>POC-A-9</t>
+  </si>
+  <si>
+    <t>POC-A-10</t>
+  </si>
+  <si>
+    <t>POC-A-11</t>
+  </si>
+  <si>
+    <t>POC-A-12</t>
+  </si>
+  <si>
+    <t>POC-A-13</t>
+  </si>
+  <si>
+    <t>POC-A-14</t>
+  </si>
+  <si>
+    <t>POC-A-15</t>
+  </si>
+  <si>
+    <t>POC-A-16</t>
+  </si>
+  <si>
+    <t>POC-A-17</t>
+  </si>
+  <si>
+    <t>POC-R-11</t>
+  </si>
+  <si>
+    <t>POC-R-12</t>
+  </si>
+  <si>
+    <t>POC-R-13</t>
+  </si>
+  <si>
+    <t>POC-R-14</t>
+  </si>
+  <si>
+    <t>POC-R-15</t>
+  </si>
+  <si>
+    <t>POC-R-16</t>
+  </si>
+  <si>
+    <t>POC-R-17</t>
+  </si>
+  <si>
+    <t>POC-R-18</t>
+  </si>
+  <si>
+    <t>POC-R-19</t>
+  </si>
+  <si>
+    <t>POC-R-20</t>
+  </si>
+  <si>
+    <t>POC-R-21</t>
+  </si>
+  <si>
+    <t>POC-R-22</t>
+  </si>
+  <si>
+    <t>POC-R-23</t>
+  </si>
+  <si>
+    <t>POC-R-24</t>
+  </si>
+  <si>
+    <t>POC-R-25</t>
+  </si>
+  <si>
+    <t>POC-R-26</t>
+  </si>
+  <si>
+    <t>POC-R-27</t>
+  </si>
+  <si>
+    <t>POC-R-28</t>
+  </si>
+  <si>
+    <t>POC-R-29</t>
+  </si>
+  <si>
+    <t>POC-R-30</t>
+  </si>
+  <si>
+    <t>POR-A-6</t>
+  </si>
+  <si>
+    <t>POR-A-7</t>
+  </si>
+  <si>
+    <t>POR-A-8</t>
+  </si>
+  <si>
+    <t>POR-A-9</t>
+  </si>
+  <si>
+    <t>POR-A-10</t>
+  </si>
+  <si>
+    <t>POR-A-11</t>
+  </si>
+  <si>
+    <t>POR-A-12</t>
+  </si>
+  <si>
+    <t>POR-A-13</t>
+  </si>
+  <si>
+    <t>POR-A-14</t>
+  </si>
+  <si>
+    <t>POR-A-15</t>
+  </si>
+  <si>
+    <t>POR-A-16</t>
+  </si>
+  <si>
+    <t>POR-A-17</t>
+  </si>
+  <si>
+    <t>POR-R-11</t>
+  </si>
+  <si>
+    <t>POR-R-12</t>
+  </si>
+  <si>
+    <t>POR-R-13</t>
+  </si>
+  <si>
+    <t>POR-R-14</t>
+  </si>
+  <si>
+    <t>POR-R-15</t>
+  </si>
+  <si>
+    <t>POR-R-16</t>
+  </si>
+  <si>
+    <t>POR-R-17</t>
+  </si>
+  <si>
+    <t>POR-R-18</t>
+  </si>
+  <si>
+    <t>POR-R-19</t>
+  </si>
+  <si>
+    <t>POR-R-20</t>
+  </si>
+  <si>
+    <t>POR-R-21</t>
+  </si>
+  <si>
+    <t>POR-R-22</t>
+  </si>
+  <si>
+    <t>POR-R-23</t>
+  </si>
+  <si>
+    <t>POR-R-24</t>
+  </si>
+  <si>
+    <t>POR-R-25</t>
+  </si>
+  <si>
+    <t>POR-R-26</t>
+  </si>
+  <si>
+    <t>POR-R-27</t>
+  </si>
+  <si>
+    <t>POR-R-28</t>
+  </si>
+  <si>
+    <t>POR-R-29</t>
+  </si>
+  <si>
+    <t>POR-R-30</t>
   </si>
 </sst>
 </file>
@@ -423,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,10 +879,10 @@
     <col min="4" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +910,2096 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <v>20231104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>20231104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>20231104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>20231104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>20231104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>20231104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>20231104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>20231104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>20231104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>20231104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>20231104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>20231104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>20231104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>20231104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>20231104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>20231104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>20231104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>20231104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>20231104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>20231104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>20231104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>20231104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>20231104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>20231104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>20231104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>20231104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>20231104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>20231104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>20231104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>20231104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32">
+        <v>20231104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>20231104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>20231104</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>20231104</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36">
+        <v>20231104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <v>20231104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>20231104</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>20231104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>20231104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>20231104</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>20231104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>20231104</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>20231104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>20231104</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46">
+        <v>20231104</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/field_collection/collection_metadata.xlsx
+++ b/data/field_collection/collection_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/field_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB21C49-0527-1D46-A650-A3080508C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4405190-7517-E745-90A6-EB5EF9682B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="760" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="11380" yWindow="760" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -65,156 +65,21 @@
     <t>notes</t>
   </si>
   <si>
-    <t>ACR-A-1</t>
-  </si>
-  <si>
     <t>Acropora</t>
   </si>
   <si>
     <t>Adult</t>
   </si>
   <si>
-    <t>ACR-A-2</t>
-  </si>
-  <si>
-    <t>ACR-A-3</t>
-  </si>
-  <si>
-    <t>ACR-A-4</t>
-  </si>
-  <si>
-    <t>ACR-A-5</t>
-  </si>
-  <si>
-    <t>ACR-R-1</t>
-  </si>
-  <si>
     <t>Recruit</t>
   </si>
   <si>
-    <t>ACR-R-2</t>
-  </si>
-  <si>
-    <t>ACR-R-3</t>
-  </si>
-  <si>
-    <t>ACR-R-4</t>
-  </si>
-  <si>
-    <t>ACR-R-5</t>
-  </si>
-  <si>
-    <t>ACR-R-6</t>
-  </si>
-  <si>
-    <t>ACR-R-7</t>
-  </si>
-  <si>
-    <t>ACR-R-8</t>
-  </si>
-  <si>
-    <t>ACR-R-9</t>
-  </si>
-  <si>
-    <t>ACR-R-10</t>
-  </si>
-  <si>
-    <t>POC-A-1</t>
-  </si>
-  <si>
     <t>Pocillopora</t>
   </si>
   <si>
-    <t>POC-A-2</t>
-  </si>
-  <si>
-    <t>POC-A-3</t>
-  </si>
-  <si>
-    <t>POC-A-4</t>
-  </si>
-  <si>
-    <t>POC-A-5</t>
-  </si>
-  <si>
-    <t>POC-R-1</t>
-  </si>
-  <si>
-    <t>POC-R-2</t>
-  </si>
-  <si>
-    <t>POC-R-3</t>
-  </si>
-  <si>
-    <t>POC-R-4</t>
-  </si>
-  <si>
-    <t>POC-R-5</t>
-  </si>
-  <si>
-    <t>POC-R-6</t>
-  </si>
-  <si>
-    <t>POC-R-7</t>
-  </si>
-  <si>
-    <t>POC-R-8</t>
-  </si>
-  <si>
-    <t>POC-R-9</t>
-  </si>
-  <si>
-    <t>POC-R-10</t>
-  </si>
-  <si>
-    <t>POR-A-1</t>
-  </si>
-  <si>
     <t>Porites</t>
   </si>
   <si>
-    <t>POR-A-2</t>
-  </si>
-  <si>
-    <t>POR-A-3</t>
-  </si>
-  <si>
-    <t>POR-A-4</t>
-  </si>
-  <si>
-    <t>POR-A-5</t>
-  </si>
-  <si>
-    <t>POR-R-1</t>
-  </si>
-  <si>
-    <t>POR-R-2</t>
-  </si>
-  <si>
-    <t>POR-R-3</t>
-  </si>
-  <si>
-    <t>POR-R-4</t>
-  </si>
-  <si>
-    <t>POR-R-5</t>
-  </si>
-  <si>
-    <t>POR-R-6</t>
-  </si>
-  <si>
-    <t>POR-R-7</t>
-  </si>
-  <si>
-    <t>POR-R-8</t>
-  </si>
-  <si>
-    <t>POR-R-9</t>
-  </si>
-  <si>
-    <t>POR-R-10</t>
-  </si>
-  <si>
     <t>Avaiti</t>
   </si>
   <si>
@@ -224,292 +89,427 @@
     <t>yes</t>
   </si>
   <si>
-    <t>ACR-A-6</t>
-  </si>
-  <si>
-    <t>ACR-A-7</t>
-  </si>
-  <si>
-    <t>ACR-A-8</t>
-  </si>
-  <si>
-    <t>ACR-A-9</t>
-  </si>
-  <si>
-    <t>ACR-A-10</t>
-  </si>
-  <si>
-    <t>ACR-A-11</t>
-  </si>
-  <si>
-    <t>ACR-A-12</t>
-  </si>
-  <si>
-    <t>ACR-A-13</t>
-  </si>
-  <si>
-    <t>ACR-A-14</t>
-  </si>
-  <si>
-    <t>ACR-A-15</t>
-  </si>
-  <si>
-    <t>ACR-A-16</t>
-  </si>
-  <si>
-    <t>ACR-A-17</t>
-  </si>
-  <si>
-    <t>ACR-R-11</t>
-  </si>
-  <si>
-    <t>ACR-R-12</t>
-  </si>
-  <si>
-    <t>ACR-R-13</t>
-  </si>
-  <si>
-    <t>ACR-R-14</t>
-  </si>
-  <si>
-    <t>ACR-R-15</t>
-  </si>
-  <si>
-    <t>ACR-R-16</t>
-  </si>
-  <si>
-    <t>ACR-R-17</t>
-  </si>
-  <si>
-    <t>ACR-R-18</t>
-  </si>
-  <si>
-    <t>ACR-R-19</t>
-  </si>
-  <si>
-    <t>ACR-R-20</t>
-  </si>
-  <si>
-    <t>ACR-R-21</t>
-  </si>
-  <si>
-    <t>ACR-R-22</t>
-  </si>
-  <si>
-    <t>ACR-R-23</t>
-  </si>
-  <si>
-    <t>ACR-R-24</t>
-  </si>
-  <si>
-    <t>ACR-R-25</t>
-  </si>
-  <si>
-    <t>ACR-R-26</t>
-  </si>
-  <si>
-    <t>ACR-R-27</t>
-  </si>
-  <si>
-    <t>ACR-R-28</t>
-  </si>
-  <si>
-    <t>ACR-R-29</t>
-  </si>
-  <si>
-    <t>ACR-R-30</t>
-  </si>
-  <si>
-    <t>POC-A-6</t>
-  </si>
-  <si>
-    <t>POC-A-7</t>
-  </si>
-  <si>
-    <t>POC-A-8</t>
-  </si>
-  <si>
-    <t>POC-A-9</t>
-  </si>
-  <si>
-    <t>POC-A-10</t>
-  </si>
-  <si>
-    <t>POC-A-11</t>
-  </si>
-  <si>
-    <t>POC-A-12</t>
-  </si>
-  <si>
-    <t>POC-A-13</t>
-  </si>
-  <si>
-    <t>POC-A-14</t>
-  </si>
-  <si>
-    <t>POC-A-15</t>
-  </si>
-  <si>
-    <t>POC-A-16</t>
-  </si>
-  <si>
-    <t>POC-A-17</t>
-  </si>
-  <si>
-    <t>POC-R-11</t>
-  </si>
-  <si>
-    <t>POC-R-12</t>
-  </si>
-  <si>
-    <t>POC-R-13</t>
-  </si>
-  <si>
-    <t>POC-R-14</t>
-  </si>
-  <si>
-    <t>POC-R-15</t>
-  </si>
-  <si>
-    <t>POC-R-16</t>
-  </si>
-  <si>
-    <t>POC-R-17</t>
-  </si>
-  <si>
-    <t>POC-R-18</t>
-  </si>
-  <si>
-    <t>POC-R-19</t>
-  </si>
-  <si>
-    <t>POC-R-20</t>
-  </si>
-  <si>
-    <t>POC-R-21</t>
-  </si>
-  <si>
-    <t>POC-R-22</t>
-  </si>
-  <si>
-    <t>POC-R-23</t>
-  </si>
-  <si>
-    <t>POC-R-24</t>
-  </si>
-  <si>
-    <t>POC-R-25</t>
-  </si>
-  <si>
-    <t>POC-R-26</t>
-  </si>
-  <si>
-    <t>POC-R-27</t>
-  </si>
-  <si>
-    <t>POC-R-28</t>
-  </si>
-  <si>
-    <t>POC-R-29</t>
-  </si>
-  <si>
-    <t>POC-R-30</t>
-  </si>
-  <si>
-    <t>POR-A-6</t>
-  </si>
-  <si>
-    <t>POR-A-7</t>
-  </si>
-  <si>
-    <t>POR-A-8</t>
-  </si>
-  <si>
-    <t>POR-A-9</t>
-  </si>
-  <si>
-    <t>POR-A-10</t>
-  </si>
-  <si>
-    <t>POR-A-11</t>
-  </si>
-  <si>
-    <t>POR-A-12</t>
-  </si>
-  <si>
-    <t>POR-A-13</t>
-  </si>
-  <si>
-    <t>POR-A-14</t>
-  </si>
-  <si>
-    <t>POR-A-15</t>
-  </si>
-  <si>
-    <t>POR-A-16</t>
-  </si>
-  <si>
-    <t>POR-A-17</t>
-  </si>
-  <si>
-    <t>POR-R-11</t>
-  </si>
-  <si>
-    <t>POR-R-12</t>
-  </si>
-  <si>
-    <t>POR-R-13</t>
-  </si>
-  <si>
-    <t>POR-R-14</t>
-  </si>
-  <si>
-    <t>POR-R-15</t>
-  </si>
-  <si>
-    <t>POR-R-16</t>
-  </si>
-  <si>
-    <t>POR-R-17</t>
-  </si>
-  <si>
-    <t>POR-R-18</t>
-  </si>
-  <si>
-    <t>POR-R-19</t>
-  </si>
-  <si>
-    <t>POR-R-20</t>
-  </si>
-  <si>
-    <t>POR-R-21</t>
-  </si>
-  <si>
-    <t>POR-R-22</t>
-  </si>
-  <si>
-    <t>POR-R-23</t>
-  </si>
-  <si>
-    <t>POR-R-24</t>
-  </si>
-  <si>
-    <t>POR-R-25</t>
-  </si>
-  <si>
-    <t>POR-R-26</t>
-  </si>
-  <si>
-    <t>POR-R-27</t>
-  </si>
-  <si>
-    <t>POR-R-28</t>
-  </si>
-  <si>
-    <t>POR-R-29</t>
-  </si>
-  <si>
-    <t>POR-R-30</t>
+    <t>ACR-A1</t>
+  </si>
+  <si>
+    <t>ACR-A2</t>
+  </si>
+  <si>
+    <t>ACR-A3</t>
+  </si>
+  <si>
+    <t>ACR-A4</t>
+  </si>
+  <si>
+    <t>ACR-A5</t>
+  </si>
+  <si>
+    <t>ACR-R1</t>
+  </si>
+  <si>
+    <t>ACR-R2</t>
+  </si>
+  <si>
+    <t>ACR-R3</t>
+  </si>
+  <si>
+    <t>ACR-R4</t>
+  </si>
+  <si>
+    <t>ACR-R5</t>
+  </si>
+  <si>
+    <t>ACR-R6</t>
+  </si>
+  <si>
+    <t>ACR-R7</t>
+  </si>
+  <si>
+    <t>ACR-R8</t>
+  </si>
+  <si>
+    <t>ACR-R9</t>
+  </si>
+  <si>
+    <t>ACR-R10</t>
+  </si>
+  <si>
+    <t>POC-A1</t>
+  </si>
+  <si>
+    <t>POC-A2</t>
+  </si>
+  <si>
+    <t>POC-A3</t>
+  </si>
+  <si>
+    <t>POC-A4</t>
+  </si>
+  <si>
+    <t>POC-A5</t>
+  </si>
+  <si>
+    <t>POC-R1</t>
+  </si>
+  <si>
+    <t>POC-R2</t>
+  </si>
+  <si>
+    <t>POC-R3</t>
+  </si>
+  <si>
+    <t>POC-R4</t>
+  </si>
+  <si>
+    <t>POC-R5</t>
+  </si>
+  <si>
+    <t>POC-R6</t>
+  </si>
+  <si>
+    <t>POC-R7</t>
+  </si>
+  <si>
+    <t>POC-R8</t>
+  </si>
+  <si>
+    <t>POC-R9</t>
+  </si>
+  <si>
+    <t>POC-R10</t>
+  </si>
+  <si>
+    <t>POR-A1</t>
+  </si>
+  <si>
+    <t>POR-A2</t>
+  </si>
+  <si>
+    <t>POR-A3</t>
+  </si>
+  <si>
+    <t>POR-A4</t>
+  </si>
+  <si>
+    <t>POR-A5</t>
+  </si>
+  <si>
+    <t>POR-R1</t>
+  </si>
+  <si>
+    <t>POR-R2</t>
+  </si>
+  <si>
+    <t>POR-R3</t>
+  </si>
+  <si>
+    <t>POR-R4</t>
+  </si>
+  <si>
+    <t>POR-R5</t>
+  </si>
+  <si>
+    <t>POR-R6</t>
+  </si>
+  <si>
+    <t>POR-R7</t>
+  </si>
+  <si>
+    <t>POR-R8</t>
+  </si>
+  <si>
+    <t>POR-R9</t>
+  </si>
+  <si>
+    <t>POR-R10</t>
+  </si>
+  <si>
+    <t>ACR-A6</t>
+  </si>
+  <si>
+    <t>ACR-A7</t>
+  </si>
+  <si>
+    <t>ACR-A8</t>
+  </si>
+  <si>
+    <t>ACR-A9</t>
+  </si>
+  <si>
+    <t>ACR-A10</t>
+  </si>
+  <si>
+    <t>ACR-A11</t>
+  </si>
+  <si>
+    <t>ACR-A12</t>
+  </si>
+  <si>
+    <t>ACR-A13</t>
+  </si>
+  <si>
+    <t>ACR-A14</t>
+  </si>
+  <si>
+    <t>ACR-A15</t>
+  </si>
+  <si>
+    <t>ACR-A16</t>
+  </si>
+  <si>
+    <t>ACR-A17</t>
+  </si>
+  <si>
+    <t>ACR-R11</t>
+  </si>
+  <si>
+    <t>ACR-R12</t>
+  </si>
+  <si>
+    <t>ACR-R13</t>
+  </si>
+  <si>
+    <t>ACR-R14</t>
+  </si>
+  <si>
+    <t>ACR-R15</t>
+  </si>
+  <si>
+    <t>ACR-R16</t>
+  </si>
+  <si>
+    <t>ACR-R17</t>
+  </si>
+  <si>
+    <t>ACR-R18</t>
+  </si>
+  <si>
+    <t>ACR-R19</t>
+  </si>
+  <si>
+    <t>ACR-R20</t>
+  </si>
+  <si>
+    <t>ACR-R21</t>
+  </si>
+  <si>
+    <t>ACR-R22</t>
+  </si>
+  <si>
+    <t>ACR-R23</t>
+  </si>
+  <si>
+    <t>ACR-R24</t>
+  </si>
+  <si>
+    <t>ACR-R25</t>
+  </si>
+  <si>
+    <t>ACR-R26</t>
+  </si>
+  <si>
+    <t>ACR-R27</t>
+  </si>
+  <si>
+    <t>ACR-R28</t>
+  </si>
+  <si>
+    <t>ACR-R29</t>
+  </si>
+  <si>
+    <t>ACR-R30</t>
+  </si>
+  <si>
+    <t>POC-A6</t>
+  </si>
+  <si>
+    <t>POC-A7</t>
+  </si>
+  <si>
+    <t>POC-A8</t>
+  </si>
+  <si>
+    <t>POC-A9</t>
+  </si>
+  <si>
+    <t>POC-A10</t>
+  </si>
+  <si>
+    <t>POC-A11</t>
+  </si>
+  <si>
+    <t>POC-A12</t>
+  </si>
+  <si>
+    <t>POC-A13</t>
+  </si>
+  <si>
+    <t>POC-A14</t>
+  </si>
+  <si>
+    <t>POC-A15</t>
+  </si>
+  <si>
+    <t>POC-A16</t>
+  </si>
+  <si>
+    <t>POC-A17</t>
+  </si>
+  <si>
+    <t>POC-R11</t>
+  </si>
+  <si>
+    <t>POC-R12</t>
+  </si>
+  <si>
+    <t>POC-R13</t>
+  </si>
+  <si>
+    <t>POC-R14</t>
+  </si>
+  <si>
+    <t>POC-R15</t>
+  </si>
+  <si>
+    <t>POC-R16</t>
+  </si>
+  <si>
+    <t>POC-R17</t>
+  </si>
+  <si>
+    <t>POC-R18</t>
+  </si>
+  <si>
+    <t>POC-R19</t>
+  </si>
+  <si>
+    <t>POC-R20</t>
+  </si>
+  <si>
+    <t>POC-R21</t>
+  </si>
+  <si>
+    <t>POC-R22</t>
+  </si>
+  <si>
+    <t>POC-R23</t>
+  </si>
+  <si>
+    <t>POC-R24</t>
+  </si>
+  <si>
+    <t>POC-R25</t>
+  </si>
+  <si>
+    <t>POC-R26</t>
+  </si>
+  <si>
+    <t>POC-R27</t>
+  </si>
+  <si>
+    <t>POC-R28</t>
+  </si>
+  <si>
+    <t>POC-R29</t>
+  </si>
+  <si>
+    <t>POC-R30</t>
+  </si>
+  <si>
+    <t>POR-A6</t>
+  </si>
+  <si>
+    <t>POR-A7</t>
+  </si>
+  <si>
+    <t>POR-A8</t>
+  </si>
+  <si>
+    <t>POR-A9</t>
+  </si>
+  <si>
+    <t>POR-A10</t>
+  </si>
+  <si>
+    <t>POR-A11</t>
+  </si>
+  <si>
+    <t>POR-A12</t>
+  </si>
+  <si>
+    <t>POR-A13</t>
+  </si>
+  <si>
+    <t>POR-A14</t>
+  </si>
+  <si>
+    <t>POR-A15</t>
+  </si>
+  <si>
+    <t>POR-A16</t>
+  </si>
+  <si>
+    <t>POR-A17</t>
+  </si>
+  <si>
+    <t>POR-R11</t>
+  </si>
+  <si>
+    <t>POR-R12</t>
+  </si>
+  <si>
+    <t>POR-R13</t>
+  </si>
+  <si>
+    <t>POR-R14</t>
+  </si>
+  <si>
+    <t>POR-R15</t>
+  </si>
+  <si>
+    <t>POR-R16</t>
+  </si>
+  <si>
+    <t>POR-R17</t>
+  </si>
+  <si>
+    <t>POR-R18</t>
+  </si>
+  <si>
+    <t>POR-R19</t>
+  </si>
+  <si>
+    <t>POR-R20</t>
+  </si>
+  <si>
+    <t>POR-R21</t>
+  </si>
+  <si>
+    <t>POR-R22</t>
+  </si>
+  <si>
+    <t>POR-R23</t>
+  </si>
+  <si>
+    <t>POR-R24</t>
+  </si>
+  <si>
+    <t>POR-R25</t>
+  </si>
+  <si>
+    <t>POR-R26</t>
+  </si>
+  <si>
+    <t>POR-R27</t>
+  </si>
+  <si>
+    <t>POR-R28</t>
+  </si>
+  <si>
+    <t>POR-R29</t>
+  </si>
+  <si>
+    <t>POR-R30</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,1037 +913,1037 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>20231104</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>20231104</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>20231104</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>20231104</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>20231104</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>20231104</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>20231104</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>20231104</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>20231104</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>20231104</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>20231104</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>20231104</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>20231104</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>20231104</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>20231104</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>20231104</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>20231104</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>20231104</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>20231104</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>20231104</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>20231104</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>20231104</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>20231104</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>20231104</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>20231104</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>20231104</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>20231104</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>20231104</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>20231104</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>20231104</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>20231104</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>20231104</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>20231104</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>20231104</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>20231104</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>20231104</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>20231104</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>20231104</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>20231104</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>20231104</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>20231104</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>20231104</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>20231104</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>20231104</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>20231104</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1951,10 +1951,10 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1962,10 +1962,10 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,10 +1995,10 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2006,10 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,10 +2017,10 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,10 +2028,10 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,10 +2039,10 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,10 +2050,10 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,10 +2061,10 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,10 +2072,10 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,10 +2083,10 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,10 +2105,10 @@
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,10 +2116,10 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,10 +2127,10 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +2138,10 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,10 +2149,10 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,10 +2160,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +2171,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,10 +2182,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2193,10 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2204,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,10 +2226,10 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,10 +2237,10 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2248,10 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,10 +2259,10 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2270,10 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,10 +2281,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2292,10 +2292,10 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,10 +2303,10 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,10 +2314,10 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,10 +2325,10 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,10 +2336,10 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2347,10 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,10 +2358,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,10 +2369,10 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,10 +2380,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,10 +2391,10 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,10 +2402,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,10 +2413,10 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,10 +2424,10 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,10 +2435,10 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,10 +2446,10 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,10 +2457,10 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,10 +2468,10 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,10 +2479,10 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,10 +2490,10 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,10 +2501,10 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,10 +2512,10 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,10 +2523,10 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2534,10 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,10 +2556,10 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2567,10 +2567,10 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2578,10 +2578,10 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,10 +2589,10 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,10 +2600,10 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,10 +2611,10 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2622,10 +2622,10 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,10 +2633,10 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2644,10 +2644,10 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,10 +2655,10 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2666,10 +2666,10 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,10 +2677,10 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2688,10 +2688,10 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2699,10 +2699,10 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2710,10 +2710,10 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2721,10 +2721,10 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2732,10 +2732,10 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2743,10 +2743,10 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2754,10 +2754,10 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2765,10 +2765,10 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2776,10 +2776,10 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2787,10 +2787,10 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,10 +2798,10 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2809,10 +2809,10 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2820,10 +2820,10 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2831,10 +2831,10 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2842,10 +2842,10 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,10 +2853,10 @@
         <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,10 +2864,10 @@
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,10 +2875,10 @@
         <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2886,10 +2886,10 @@
         <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2897,10 +2897,10 @@
         <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2908,10 +2908,10 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2930,10 +2930,10 @@
         <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2941,10 +2941,10 @@
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2952,10 +2952,10 @@
         <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2963,10 +2963,10 @@
         <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2974,10 +2974,10 @@
         <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2985,10 +2985,10 @@
         <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,10 +2996,10 @@
         <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/field_collection/collection_metadata.xlsx
+++ b/data/field_collection/collection_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/field_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4405190-7517-E745-90A6-EB5EF9682B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5488CF8F-1B12-E541-9DDC-A7D1FD73CD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11380" yWindow="760" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="268">
   <si>
     <t>sample_id</t>
   </si>
@@ -510,13 +510,343 @@
   </si>
   <si>
     <t>POR-R30</t>
+  </si>
+  <si>
+    <t>PR Rates</t>
+  </si>
+  <si>
+    <t>ACR-A18</t>
+  </si>
+  <si>
+    <t>ACR-A19</t>
+  </si>
+  <si>
+    <t>ACR-A20</t>
+  </si>
+  <si>
+    <t>ACR-A21</t>
+  </si>
+  <si>
+    <t>ACR-A22</t>
+  </si>
+  <si>
+    <t>ACR-A23</t>
+  </si>
+  <si>
+    <t>ACR-A24</t>
+  </si>
+  <si>
+    <t>ACR-A25</t>
+  </si>
+  <si>
+    <t>ACR-A26</t>
+  </si>
+  <si>
+    <t>ACR-A27</t>
+  </si>
+  <si>
+    <t>ACR-A28</t>
+  </si>
+  <si>
+    <t>ACR-A29</t>
+  </si>
+  <si>
+    <t>ACR-A30</t>
+  </si>
+  <si>
+    <t>ACR-A31</t>
+  </si>
+  <si>
+    <t>ACR-A32</t>
+  </si>
+  <si>
+    <t>ACR-R31</t>
+  </si>
+  <si>
+    <t>ACR-R32</t>
+  </si>
+  <si>
+    <t>ACR-R33</t>
+  </si>
+  <si>
+    <t>ACR-R34</t>
+  </si>
+  <si>
+    <t>ACR-R35</t>
+  </si>
+  <si>
+    <t>ACR-R36</t>
+  </si>
+  <si>
+    <t>ACR-R37</t>
+  </si>
+  <si>
+    <t>ACR-R38</t>
+  </si>
+  <si>
+    <t>ACR-R39</t>
+  </si>
+  <si>
+    <t>ACR-R40</t>
+  </si>
+  <si>
+    <t>ACR-R41</t>
+  </si>
+  <si>
+    <t>ACR-R42</t>
+  </si>
+  <si>
+    <t>ACR-R43</t>
+  </si>
+  <si>
+    <t>ACR-R44</t>
+  </si>
+  <si>
+    <t>ACR-R45</t>
+  </si>
+  <si>
+    <t>ACR-R46</t>
+  </si>
+  <si>
+    <t>ACR-R47</t>
+  </si>
+  <si>
+    <t>ACR-R48</t>
+  </si>
+  <si>
+    <t>ACR-R49</t>
+  </si>
+  <si>
+    <t>ACR-R50</t>
+  </si>
+  <si>
+    <t>ACR-R51</t>
+  </si>
+  <si>
+    <t>POC-A18</t>
+  </si>
+  <si>
+    <t>POC-A19</t>
+  </si>
+  <si>
+    <t>POC-A20</t>
+  </si>
+  <si>
+    <t>POC-A21</t>
+  </si>
+  <si>
+    <t>POC-A22</t>
+  </si>
+  <si>
+    <t>POC-A23</t>
+  </si>
+  <si>
+    <t>POC-A24</t>
+  </si>
+  <si>
+    <t>POC-A25</t>
+  </si>
+  <si>
+    <t>POC-A26</t>
+  </si>
+  <si>
+    <t>POC-A27</t>
+  </si>
+  <si>
+    <t>POC-A28</t>
+  </si>
+  <si>
+    <t>POC-A29</t>
+  </si>
+  <si>
+    <t>POC-A30</t>
+  </si>
+  <si>
+    <t>POC-A31</t>
+  </si>
+  <si>
+    <t>POC-A32</t>
+  </si>
+  <si>
+    <t>POC-R31</t>
+  </si>
+  <si>
+    <t>POC-R32</t>
+  </si>
+  <si>
+    <t>POC-R33</t>
+  </si>
+  <si>
+    <t>POC-R34</t>
+  </si>
+  <si>
+    <t>POC-R35</t>
+  </si>
+  <si>
+    <t>POC-R37</t>
+  </si>
+  <si>
+    <t>POC-R38</t>
+  </si>
+  <si>
+    <t>POC-R36</t>
+  </si>
+  <si>
+    <t>POC-R39</t>
+  </si>
+  <si>
+    <t>POC-R40</t>
+  </si>
+  <si>
+    <t>POC-R41</t>
+  </si>
+  <si>
+    <t>POC-R42</t>
+  </si>
+  <si>
+    <t>POC-R43</t>
+  </si>
+  <si>
+    <t>POC-R44</t>
+  </si>
+  <si>
+    <t>POC-R45</t>
+  </si>
+  <si>
+    <t>POC-R46</t>
+  </si>
+  <si>
+    <t>POC-R47</t>
+  </si>
+  <si>
+    <t>POC-R48</t>
+  </si>
+  <si>
+    <t>POC-R49</t>
+  </si>
+  <si>
+    <t>POC-R50</t>
+  </si>
+  <si>
+    <t>POC-R51</t>
+  </si>
+  <si>
+    <t>POR-A18</t>
+  </si>
+  <si>
+    <t>POR-A19</t>
+  </si>
+  <si>
+    <t>POR-A20</t>
+  </si>
+  <si>
+    <t>POR-A21</t>
+  </si>
+  <si>
+    <t>POR-A22</t>
+  </si>
+  <si>
+    <t>POR-A23</t>
+  </si>
+  <si>
+    <t>POR-A24</t>
+  </si>
+  <si>
+    <t>POR-A25</t>
+  </si>
+  <si>
+    <t>POR-A26</t>
+  </si>
+  <si>
+    <t>POR-A27</t>
+  </si>
+  <si>
+    <t>POR-A28</t>
+  </si>
+  <si>
+    <t>POR-A29</t>
+  </si>
+  <si>
+    <t>POR-A30</t>
+  </si>
+  <si>
+    <t>POR-A31</t>
+  </si>
+  <si>
+    <t>POR-A32</t>
+  </si>
+  <si>
+    <t>POR-R31</t>
+  </si>
+  <si>
+    <t>POR-R32</t>
+  </si>
+  <si>
+    <t>POR-R33</t>
+  </si>
+  <si>
+    <t>POR-R34</t>
+  </si>
+  <si>
+    <t>POR-R35</t>
+  </si>
+  <si>
+    <t>POR-R36</t>
+  </si>
+  <si>
+    <t>POR-R37</t>
+  </si>
+  <si>
+    <t>POR-R38</t>
+  </si>
+  <si>
+    <t>POR-R39</t>
+  </si>
+  <si>
+    <t>POR-R40</t>
+  </si>
+  <si>
+    <t>POR-R41</t>
+  </si>
+  <si>
+    <t>POR-R42</t>
+  </si>
+  <si>
+    <t>POR-R43</t>
+  </si>
+  <si>
+    <t>POR-R44</t>
+  </si>
+  <si>
+    <t>POR-R45</t>
+  </si>
+  <si>
+    <t>POR-R46</t>
+  </si>
+  <si>
+    <t>POR-R47</t>
+  </si>
+  <si>
+    <t>POR-R48</t>
+  </si>
+  <si>
+    <t>POR-R49</t>
+  </si>
+  <si>
+    <t>POR-R50</t>
+  </si>
+  <si>
+    <t>POR-R51</t>
+  </si>
+  <si>
+    <t>Isotopes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,6 +856,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,8 +888,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,6 +2294,18 @@
       <c r="C47" t="s">
         <v>10</v>
       </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>20231106</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1967,8 +2317,20 @@
       <c r="C48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>20231106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1978,8 +2340,20 @@
       <c r="C49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>20231106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1989,8 +2363,20 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>20231106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2000,8 +2386,20 @@
       <c r="C51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>20231106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2011,8 +2409,20 @@
       <c r="C52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>20231106</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2022,8 +2432,20 @@
       <c r="C53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>20231106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2033,8 +2455,20 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>20231106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2044,8 +2478,20 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>20231106</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -2055,8 +2501,20 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>20231106</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2066,8 +2524,20 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>20231106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2077,8 +2547,20 @@
       <c r="C58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>20231106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2088,8 +2570,20 @@
       <c r="C59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>20231106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2099,8 +2593,20 @@
       <c r="C60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>20231106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2110,8 +2616,20 @@
       <c r="C61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>20231106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2121,8 +2639,20 @@
       <c r="C62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>20231106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2132,8 +2662,20 @@
       <c r="C63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>20231106</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2143,8 +2685,20 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>20231106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2154,8 +2708,20 @@
       <c r="C65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>20231106</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2165,8 +2731,20 @@
       <c r="C66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>20231106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2176,8 +2754,20 @@
       <c r="C67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>20231106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2187,8 +2777,20 @@
       <c r="C68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>20231106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -2198,8 +2800,20 @@
       <c r="C69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>20231106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -2209,8 +2823,20 @@
       <c r="C70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>20231106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2220,8 +2846,20 @@
       <c r="C71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>20231106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -2231,8 +2869,20 @@
       <c r="C72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>20231106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2242,8 +2892,20 @@
       <c r="C73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>20231106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -2253,8 +2915,20 @@
       <c r="C74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>20231106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -2264,8 +2938,20 @@
       <c r="C75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>20231106</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2275,8 +2961,20 @@
       <c r="C76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>20231106</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -2286,8 +2984,20 @@
       <c r="C77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>20231106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -2297,8 +3007,20 @@
       <c r="C78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78">
+        <v>20231106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2308,8 +3030,20 @@
       <c r="C79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>20231106</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -2319,8 +3053,20 @@
       <c r="C80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>20231106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -2330,8 +3076,20 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>20231106</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -2341,8 +3099,20 @@
       <c r="C82" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>20231106</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -2352,8 +3122,20 @@
       <c r="C83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>20231106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2363,8 +3145,20 @@
       <c r="C84" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>20231106</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -2374,8 +3168,20 @@
       <c r="C85" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>20231106</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -2385,8 +3191,20 @@
       <c r="C86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>20231106</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -2396,8 +3214,20 @@
       <c r="C87" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>20231106</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -2407,8 +3237,20 @@
       <c r="C88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>20231106</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2418,8 +3260,20 @@
       <c r="C89" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <v>20231106</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -2429,8 +3283,20 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>20231106</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2440,8 +3306,20 @@
       <c r="C91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>20231106</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2451,8 +3329,20 @@
       <c r="C92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <v>20231106</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2462,8 +3352,20 @@
       <c r="C93" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>20231106</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2473,8 +3375,20 @@
       <c r="C94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>20231106</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -2484,8 +3398,20 @@
       <c r="C95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <v>20231106</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -2495,8 +3421,20 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>20231106</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2506,8 +3444,20 @@
       <c r="C97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>20231106</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2517,8 +3467,20 @@
       <c r="C98" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>20231106</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -2528,8 +3490,20 @@
       <c r="C99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99">
+        <v>20231106</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -2539,8 +3513,20 @@
       <c r="C100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100">
+        <v>20231106</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -2550,8 +3536,20 @@
       <c r="C101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>20231106</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -2561,8 +3559,20 @@
       <c r="C102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>20231106</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -2572,8 +3582,20 @@
       <c r="C103" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>20231106</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -2583,8 +3605,20 @@
       <c r="C104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>20231106</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -2594,8 +3628,20 @@
       <c r="C105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <v>20231106</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -2605,8 +3651,20 @@
       <c r="C106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>20231106</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -2616,8 +3674,20 @@
       <c r="C107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107">
+        <v>20231106</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -2627,8 +3697,20 @@
       <c r="C108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>20231106</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -2638,8 +3720,20 @@
       <c r="C109" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>20231106</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -2649,8 +3743,20 @@
       <c r="C110" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>20231106</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -2660,8 +3766,20 @@
       <c r="C111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>20231106</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -2671,8 +3789,20 @@
       <c r="C112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112">
+        <v>20231106</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -2682,8 +3812,20 @@
       <c r="C113" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113">
+        <v>20231106</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -2693,8 +3835,20 @@
       <c r="C114" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114">
+        <v>20231106</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -2704,8 +3858,20 @@
       <c r="C115" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>20231106</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -2715,8 +3881,20 @@
       <c r="C116" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116">
+        <v>20231106</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -2726,8 +3904,20 @@
       <c r="C117" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117">
+        <v>20231106</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -2737,8 +3927,20 @@
       <c r="C118" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>20231106</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -2748,8 +3950,20 @@
       <c r="C119" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>20231106</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -2759,8 +3973,20 @@
       <c r="C120" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120">
+        <v>20231106</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -2770,8 +3996,20 @@
       <c r="C121" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121">
+        <v>20231106</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -2781,8 +4019,20 @@
       <c r="C122" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122">
+        <v>20231106</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -2792,8 +4042,20 @@
       <c r="C123" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>20231106</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -2803,8 +4065,20 @@
       <c r="C124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124">
+        <v>20231106</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -2814,8 +4088,20 @@
       <c r="C125" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <v>20231106</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -2825,8 +4111,20 @@
       <c r="C126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>20231106</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -2836,8 +4134,20 @@
       <c r="C127" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>20231106</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -2847,8 +4157,20 @@
       <c r="C128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>20231106</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -2858,8 +4180,20 @@
       <c r="C129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>20231106</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -2869,8 +4203,20 @@
       <c r="C130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130">
+        <v>20231106</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -2880,8 +4226,20 @@
       <c r="C131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131">
+        <v>20231106</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -2891,8 +4249,20 @@
       <c r="C132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132">
+        <v>20231106</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -2902,8 +4272,20 @@
       <c r="C133" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133">
+        <v>20231106</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -2913,8 +4295,20 @@
       <c r="C134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134">
+        <v>20231106</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -2924,8 +4318,20 @@
       <c r="C135" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135">
+        <v>20231106</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -2935,8 +4341,20 @@
       <c r="C136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>20231106</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -2946,8 +4364,20 @@
       <c r="C137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>20231106</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -2957,8 +4387,20 @@
       <c r="C138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138">
+        <v>20231106</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -2968,8 +4410,20 @@
       <c r="C139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139">
+        <v>20231106</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -2979,8 +4433,20 @@
       <c r="C140" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140">
+        <v>20231106</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -2990,8 +4456,20 @@
       <c r="C141" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>20231106</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -3000,6 +4478,2502 @@
       </c>
       <c r="C142" t="s">
         <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142">
+        <v>20231106</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143">
+        <v>20231111</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144">
+        <v>20231111</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145">
+        <v>20231111</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146">
+        <v>20231111</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147">
+        <v>20231111</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>20231111</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149">
+        <v>20231111</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150">
+        <v>20231111</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <v>20231111</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152">
+        <v>20231111</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153">
+        <v>20231111</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154">
+        <v>20231111</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>20231111</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <v>20231111</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157">
+        <v>20231111</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158">
+        <v>20231111</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159">
+        <v>20231111</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160">
+        <v>20231111</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161">
+        <v>20231111</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162">
+        <v>20231111</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163">
+        <v>20231111</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164">
+        <v>20231111</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165">
+        <v>20231111</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166">
+        <v>20231111</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167">
+        <v>20231111</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168">
+        <v>20231111</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169">
+        <v>20231111</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170">
+        <v>20231111</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171">
+        <v>20231111</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172">
+        <v>20231111</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173">
+        <v>20231111</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174">
+        <v>20231111</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>20231111</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>20231111</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>20231111</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178">
+        <v>20231111</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179">
+        <v>20231111</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180">
+        <v>20231111</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181">
+        <v>20231111</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182">
+        <v>20231111</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183">
+        <v>20231111</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184">
+        <v>20231111</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185">
+        <v>20231111</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186">
+        <v>20231111</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187">
+        <v>20231111</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188">
+        <v>20231111</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189">
+        <v>20231111</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190">
+        <v>20231111</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191">
+        <v>20231111</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192">
+        <v>20231111</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193">
+        <v>20231111</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>20231111</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195">
+        <v>20231111</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>20231111</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197">
+        <v>20231111</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198">
+        <v>20231111</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199">
+        <v>20231111</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200">
+        <v>20231111</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201">
+        <v>20231111</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202">
+        <v>20231111</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203">
+        <v>20231111</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204">
+        <v>20231111</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205">
+        <v>20231111</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206">
+        <v>20231111</v>
+      </c>
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207">
+        <v>20231111</v>
+      </c>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208">
+        <v>20231111</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209">
+        <v>20231111</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210">
+        <v>20231111</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211">
+        <v>20231111</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212">
+        <v>20231111</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213">
+        <v>20231111</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214">
+        <v>20231111</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215">
+        <v>20231111</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216">
+        <v>20231111</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217">
+        <v>20231111</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218">
+        <v>20231111</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219">
+        <v>20231111</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220">
+        <v>20231111</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221">
+        <v>20231112</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222">
+        <v>20231112</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223">
+        <v>20231112</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224">
+        <v>20231112</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225">
+        <v>20231112</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226">
+        <v>20231112</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>20231111</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228">
+        <v>20231111</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229">
+        <v>20231111</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230">
+        <v>20231111</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231">
+        <v>20231111</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232">
+        <v>20231111</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233">
+        <v>20231111</v>
+      </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234">
+        <v>20231111</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235">
+        <v>20231111</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236">
+        <v>20231111</v>
+      </c>
+      <c r="G236" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237">
+        <v>20231111</v>
+      </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238">
+        <v>20231111</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239">
+        <v>20231111</v>
+      </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240">
+        <v>20231111</v>
+      </c>
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241">
+        <v>20231111</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242">
+        <v>20231111</v>
+      </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243">
+        <v>20231112</v>
+      </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244">
+        <v>20231112</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245">
+        <v>20231112</v>
+      </c>
+      <c r="G245" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>16</v>
+      </c>
+      <c r="F246">
+        <v>20231112</v>
+      </c>
+      <c r="G246" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247">
+        <v>20231111</v>
+      </c>
+      <c r="G247" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248">
+        <v>20231111</v>
+      </c>
+      <c r="G248" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249">
+        <v>20231111</v>
+      </c>
+      <c r="G249" t="s">
+        <v>14</v>
+      </c>
+      <c r="H249" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250">
+        <v>20231111</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
